--- a/4.2TestCase.xlsx
+++ b/4.2TestCase.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="缺陷" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>用例编号</t>
   </si>
@@ -300,12 +300,27 @@
     <t>4.2.1.004</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>缺陷编号</t>
+  </si>
+  <si>
+    <t>需求说明</t>
+  </si>
+  <si>
+    <t>缺陷描述</t>
+  </si>
+  <si>
+    <t>4.1.2.S001</t>
+  </si>
+  <si>
+    <t>what,where,when(how),why,who,简明扼要，描述清晰</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +359,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -405,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -439,6 +463,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,11 +1031,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
@@ -1017,7 +1044,7 @@
     <col min="6" max="6" width="21.875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="3" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1049,7 +1076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="127.5" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1073,7 +1100,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="127.5" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -1091,7 +1118,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="127.5" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="5" t="s">
         <v>51</v>
@@ -1115,7 +1142,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="127.5" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="5" t="s">
         <v>55</v>
@@ -1139,7 +1166,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="127.5" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="5" t="s">
         <v>33</v>
@@ -1163,7 +1190,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="72.75" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
         <v>34</v>
@@ -1187,7 +1214,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1211,7 +1238,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1235,7 +1262,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1259,7 +1286,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" s="8" customFormat="1" ht="254.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" s="8" customFormat="1" ht="254.25" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -1281,7 +1308,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" s="8" customFormat="1" ht="205.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" s="8" customFormat="1" ht="205.5" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>39</v>
@@ -1303,7 +1330,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" s="8" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" s="8" customFormat="1" ht="92.25" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>39</v>
@@ -1325,7 +1352,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" s="8" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" s="8" customFormat="1" ht="92.25" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>39</v>
@@ -1347,7 +1374,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" s="8" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" s="8" customFormat="1" ht="92.25" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>39</v>
@@ -1369,7 +1396,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" s="8" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" s="8" customFormat="1" ht="92.25" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="11"/>
       <c r="C16" s="5" t="s">
@@ -1387,7 +1414,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" s="8" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" s="8" customFormat="1" ht="58.5" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -1534,9 +1561,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1545,18 +1574,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="55.125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" s="12" customFormat="1">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>